--- a/output/exportierte_schulliste.xlsx
+++ b/output/exportierte_schulliste.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="144">
   <si>
     <t>Id</t>
   </si>
@@ -86,34 +86,364 @@
     <t>Ausbau</t>
   </si>
   <si>
-    <t>Heinrich-Knoche-Schule</t>
-  </si>
-  <si>
-    <t>Arnsberg-Holzen</t>
-  </si>
-  <si>
-    <t>Böggenkamp 16</t>
+    <t>Lorenz-Burmann-Schule</t>
+  </si>
+  <si>
+    <t>Eslohe (Sauerland)</t>
+  </si>
+  <si>
+    <t>Böttenbergstr. 20</t>
   </si>
   <si>
     <t>HSK</t>
   </si>
   <si>
+    <t>2973</t>
+  </si>
+  <si>
+    <t>97090</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>privat</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Kolpack</t>
+  </si>
+  <si>
+    <t>02973 970 921</t>
+  </si>
+  <si>
+    <t>info@dachdeckerschule.de</t>
+  </si>
+  <si>
+    <t>Ungeklärt</t>
+  </si>
+  <si>
+    <t>Christine-Koch-Schule</t>
+  </si>
+  <si>
+    <t>Schmallenberg</t>
+  </si>
+  <si>
+    <t>Obringhauser Straße 38</t>
+  </si>
+  <si>
+    <t>2972</t>
+  </si>
+  <si>
+    <t>48051</t>
+  </si>
+  <si>
+    <t>HS</t>
+  </si>
+  <si>
+    <t>öffentlich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frau Petra Mues </t>
+  </si>
+  <si>
+    <t>02972 980-238</t>
+  </si>
+  <si>
+    <t>Petra.Mues@schmallenberg.de</t>
+  </si>
+  <si>
+    <t>Caritas-Schule Mariannhill</t>
+  </si>
+  <si>
+    <t>Arnsberg</t>
+  </si>
+  <si>
+    <t>Mariannhiller Weg 2</t>
+  </si>
+  <si>
+    <t>2931</t>
+  </si>
+  <si>
+    <t>960010</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
+    <t>Städt. Kath. Grundschule Ratmerstein</t>
+  </si>
+  <si>
+    <t>Brilon</t>
+  </si>
+  <si>
+    <t>Scharfenberger Straße 25</t>
+  </si>
+  <si>
+    <t>2961</t>
+  </si>
+  <si>
+    <t>964094</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>öffentlich</t>
-  </si>
-  <si>
-    <t/>
+    <t>C. Mund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02961/794-130 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> c.mund@brilon.de</t>
+  </si>
+  <si>
+    <t>Kardinal-von-Galen-Schule, Förderschule</t>
+  </si>
+  <si>
+    <t>Hauptstraße 11</t>
+  </si>
+  <si>
+    <t>533</t>
+  </si>
+  <si>
+    <t>Sonja Franke</t>
+  </si>
+  <si>
+    <t>0291/9021146</t>
+  </si>
+  <si>
+    <t>s.franke@caritas-meschede.de</t>
+  </si>
+  <si>
+    <t>St.Walburga-Schule</t>
+  </si>
+  <si>
+    <t>Meschede</t>
+  </si>
+  <si>
+    <t>An Klocken Kapelle 18</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>9529840</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Hans-Zulliger-Schule, Förderschule</t>
+  </si>
+  <si>
+    <t>Drübelweg 15</t>
+  </si>
+  <si>
+    <t>6669</t>
+  </si>
+  <si>
+    <t>Franz-Joseph-Koch-Schule</t>
+  </si>
+  <si>
+    <t>Mariannhillerweg 4</t>
+  </si>
+  <si>
+    <t>945870</t>
+  </si>
+  <si>
+    <t>Gem. Hauptschule</t>
+  </si>
+  <si>
+    <t>Bestwig</t>
+  </si>
+  <si>
+    <t>Zum Schulzentrum 1</t>
+  </si>
+  <si>
+    <t>2904</t>
+  </si>
+  <si>
+    <t>71130</t>
+  </si>
+  <si>
+    <t>Heinrich-11-Berufskolleg der Josefs-</t>
+  </si>
+  <si>
+    <t>Olsberg</t>
+  </si>
+  <si>
+    <t>Heinrich-Sommer-Str. 13</t>
+  </si>
+  <si>
+    <t>2962</t>
+  </si>
+  <si>
+    <t>800471</t>
+  </si>
+  <si>
+    <t>SOBK</t>
+  </si>
+  <si>
+    <t>Herr Florian Stappert</t>
+  </si>
+  <si>
+    <t>02962-8004661</t>
+  </si>
+  <si>
+    <t>f.stappert@josefsheim-bigge.de</t>
+  </si>
+  <si>
+    <t>Berufskolleg der</t>
+  </si>
+  <si>
+    <t>Dünnefeldweg 13</t>
+  </si>
+  <si>
+    <t>99150</t>
+  </si>
+  <si>
+    <t>Heinrich-Sommer-Berufskolleg der Josefsheim gGmbH</t>
+  </si>
+  <si>
+    <t>199280@schule.nrw.de</t>
+  </si>
+  <si>
+    <t>02962-8004662</t>
+  </si>
+  <si>
+    <t>Städt. Realschule</t>
+  </si>
+  <si>
+    <t>Marsberg</t>
+  </si>
+  <si>
+    <t>Trift 33</t>
+  </si>
+  <si>
+    <t>2992</t>
+  </si>
+  <si>
+    <t>2643</t>
+  </si>
+  <si>
+    <t>Freie Schule am See Langscheid</t>
+  </si>
+  <si>
+    <t>Sundern (Sauerland)</t>
+  </si>
+  <si>
+    <t>Ringstr. 51</t>
+  </si>
+  <si>
+    <t>2935</t>
+  </si>
+  <si>
+    <t>966148-0</t>
+  </si>
+  <si>
+    <t>Theodor-Heuss-Schule</t>
+  </si>
+  <si>
+    <t>Petriweg 2</t>
+  </si>
+  <si>
+    <t>2932</t>
+  </si>
+  <si>
+    <t>80200010</t>
+  </si>
+  <si>
+    <t>Städt. Realschule am Eichholz</t>
+  </si>
+  <si>
+    <t>Sauerstr. 3-5</t>
+  </si>
+  <si>
+    <t>22924</t>
+  </si>
+  <si>
+    <t>Städt. Realschule Neheim</t>
+  </si>
+  <si>
+    <t>Goethestr. 16-18</t>
+  </si>
+  <si>
+    <t>700184</t>
+  </si>
+  <si>
+    <t>Bildungsakademie Bestwig</t>
+  </si>
+  <si>
+    <t>Bundesstr. 108</t>
+  </si>
+  <si>
+    <t>Bergkloster Bestwig</t>
+  </si>
+  <si>
+    <t>Bestwig-Ostwig</t>
+  </si>
+  <si>
+    <t>Bergkloster 1</t>
+  </si>
+  <si>
+    <t>Bildungszentrum Sorpesee</t>
+  </si>
+  <si>
+    <t>Sundern-Langscheid</t>
+  </si>
+  <si>
+    <t>Brunnenstr. 36</t>
+  </si>
+  <si>
+    <t>Verbundschule Siedlinghausen-Winterberg</t>
+  </si>
+  <si>
+    <t>Winterberg-Siedlinghausen</t>
+  </si>
+  <si>
+    <t>Senge-Platten-Straße 10</t>
+  </si>
+  <si>
+    <t>Heinrich-Lübke-Schule</t>
+  </si>
+  <si>
+    <t>Zur Jakobuslinde 19</t>
+  </si>
+  <si>
+    <t>SEK</t>
   </si>
   <si>
     <t>T</t>
   </si>
   <si>
-    <t>Land</t>
+    <t>Kath. Grundschule Thülen</t>
+  </si>
+  <si>
+    <t>Brilon-Alme</t>
+  </si>
+  <si>
+    <t>Untere Bahnhofstraße 21</t>
+  </si>
+  <si>
+    <t>Brilon-Hoppecke</t>
+  </si>
+  <si>
+    <t>Heinrich-Jansen-Str. 23a</t>
+  </si>
+  <si>
+    <t>St.Engelbert Schule</t>
+  </si>
+  <si>
+    <t>Niedere Mauer 25</t>
   </si>
 </sst>
 </file>
@@ -168,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -176,16 +506,16 @@
   <cols>
     <col min="1" max="1" width="5.6796875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="17.8359375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.8671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="49.8671875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.83984375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="16.47265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="25.28125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="32.34765625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="27.90625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="15.546875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="13.6015625" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="11.671875" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" width="15.78125" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" width="21.90625" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="17.9296875" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="12.84765625" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="27.48046875" customWidth="true" bestFit="true"/>
@@ -195,7 +525,7 @@
     <col min="19" max="19" width="11.6484375" customWidth="true" bestFit="true"/>
     <col min="20" max="20" width="21.625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="31.484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="28.9453125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="29.72265625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.19140625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.44140625" customWidth="true" bestFit="true"/>
   </cols>
@@ -276,16 +606,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2584.0</v>
+        <v>1164.0</v>
       </c>
       <c r="B2" t="n">
-        <v>132093.0</v>
+        <v>181778.0</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>59757.0</v>
+        <v>59889.0</v>
       </c>
       <c r="E2" t="s">
         <v>25</v>
@@ -300,52 +630,1828 @@
         <v>28</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" t="n">
         <v>400000.0</v>
       </c>
       <c r="P2" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" t="s">
+        <v>34</v>
+      </c>
+      <c r="U2" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" t="n">
+        <v>747.0</v>
+      </c>
+      <c r="X2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1303.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>149950.0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="n">
+        <v>57392.0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="n">
+        <v>400000.0</v>
+      </c>
+      <c r="P3" t="n">
         <v>10000.0</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" t="s">
+        <v>47</v>
+      </c>
+      <c r="W3" t="n">
+        <v>349.0</v>
+      </c>
+      <c r="X3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1522.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>186417.0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>59821.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
         <v>31</v>
       </c>
-      <c r="R2" t="s">
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>32</v>
+      </c>
+      <c r="S4" t="s">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>54</v>
+      </c>
+      <c r="U4" t="s">
+        <v>54</v>
+      </c>
+      <c r="V4" t="s">
+        <v>54</v>
+      </c>
+      <c r="W4" t="n">
+        <v>111.0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1534.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>132317.0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="n">
+        <v>59929.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" t="n">
+        <v>14000.0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T5" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" t="s">
+        <v>62</v>
+      </c>
+      <c r="V5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" t="n">
+        <v>192.0</v>
+      </c>
+      <c r="X5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1549.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>186429.0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="n">
+        <v>59889.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
+      </c>
+      <c r="K6" t="s">
         <v>31</v>
       </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="L6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2400.0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>32</v>
+      </c>
+      <c r="R6" t="s">
+        <v>32</v>
+      </c>
+      <c r="S6" t="s">
+        <v>33</v>
+      </c>
+      <c r="T6" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="X6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1644.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>163508.0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59872.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s">
         <v>31</v>
       </c>
-      <c r="U2" t="s">
+      <c r="L7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
+        <v>32</v>
+      </c>
+      <c r="S7" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>54</v>
+      </c>
+      <c r="W7" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="X7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1652.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>157867.0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59929.0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
         <v>31</v>
       </c>
-      <c r="V2" t="s">
+      <c r="L8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>32</v>
+      </c>
+      <c r="S8" t="s">
+        <v>33</v>
+      </c>
+      <c r="T8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U8" t="s">
+        <v>54</v>
+      </c>
+      <c r="V8" t="s">
+        <v>54</v>
+      </c>
+      <c r="W8" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="X8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1780.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>189741.0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" t="n">
+        <v>59821.0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="n">
+        <v>400000.0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" t="s">
+        <v>54</v>
+      </c>
+      <c r="U9" t="s">
+        <v>54</v>
+      </c>
+      <c r="V9" t="s">
+        <v>54</v>
+      </c>
+      <c r="W9" t="n">
+        <v>139.0</v>
+      </c>
+      <c r="X9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1811.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>149901.0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" t="n">
+        <v>59909.0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" t="s">
+        <v>33</v>
+      </c>
+      <c r="T10" t="s">
+        <v>54</v>
+      </c>
+      <c r="U10" t="s">
+        <v>54</v>
+      </c>
+      <c r="V10" t="s">
+        <v>54</v>
+      </c>
+      <c r="W10" t="n">
+        <v>75.0</v>
+      </c>
+      <c r="X10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1948.0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>181274.0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" t="n">
+        <v>59939.0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" t="s">
         <v>31</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="X2" t="s">
+      <c r="L11" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>32</v>
+      </c>
+      <c r="R11" t="s">
+        <v>32</v>
+      </c>
+      <c r="S11" t="s">
         <v>33</v>
+      </c>
+      <c r="T11" t="s">
+        <v>93</v>
+      </c>
+      <c r="U11" t="s">
+        <v>94</v>
+      </c>
+      <c r="V11" t="s">
+        <v>95</v>
+      </c>
+      <c r="W11" t="n">
+        <v>236.0</v>
+      </c>
+      <c r="X11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2039.0</v>
+      </c>
+      <c r="B12" t="n">
+        <v>186041.0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="n">
+        <v>59872.0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" t="s">
+        <v>33</v>
+      </c>
+      <c r="T12" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" t="s">
+        <v>54</v>
+      </c>
+      <c r="V12" t="s">
+        <v>54</v>
+      </c>
+      <c r="W12" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="X12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2123.0</v>
+      </c>
+      <c r="B13" t="n">
+        <v>199280.0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="n">
+        <v>59939.0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+      <c r="F13" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>32</v>
+      </c>
+      <c r="N13" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U13" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" t="s">
+        <v>95</v>
+      </c>
+      <c r="W13" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="X13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>2262.0</v>
+      </c>
+      <c r="B14" t="n">
+        <v>163284.0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" t="n">
+        <v>34431.0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>32</v>
+      </c>
+      <c r="R14" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" t="s">
+        <v>33</v>
+      </c>
+      <c r="T14" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" t="s">
+        <v>54</v>
+      </c>
+      <c r="V14" t="s">
+        <v>54</v>
+      </c>
+      <c r="W14" t="n">
+        <v>145.0</v>
+      </c>
+      <c r="X14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2269.0</v>
+      </c>
+      <c r="B15" t="n">
+        <v>199643.0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" t="n">
+        <v>59846.0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" t="s">
+        <v>111</v>
+      </c>
+      <c r="J15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N15" t="s">
+        <v>32</v>
+      </c>
+      <c r="O15" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>32</v>
+      </c>
+      <c r="R15" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" t="s">
+        <v>33</v>
+      </c>
+      <c r="T15" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" t="s">
+        <v>32</v>
+      </c>
+      <c r="V15" t="s">
+        <v>32</v>
+      </c>
+      <c r="W15" t="n">
+        <v>84.0</v>
+      </c>
+      <c r="X15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2309.0</v>
+      </c>
+      <c r="B16" t="n">
+        <v>149100.0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" t="n">
+        <v>59759.0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" t="s">
+        <v>54</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" t="s">
+        <v>32</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>32</v>
+      </c>
+      <c r="R16" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" t="s">
+        <v>33</v>
+      </c>
+      <c r="T16" t="s">
+        <v>54</v>
+      </c>
+      <c r="U16" t="s">
+        <v>54</v>
+      </c>
+      <c r="V16" t="s">
+        <v>54</v>
+      </c>
+      <c r="W16" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="X16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2310.0</v>
+      </c>
+      <c r="B17" t="n">
+        <v>163193.0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" t="n">
+        <v>59821.0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>117</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" t="s">
+        <v>54</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" t="s">
+        <v>33</v>
+      </c>
+      <c r="T17" t="s">
+        <v>54</v>
+      </c>
+      <c r="U17" t="s">
+        <v>54</v>
+      </c>
+      <c r="V17" t="s">
+        <v>54</v>
+      </c>
+      <c r="W17" t="n">
+        <v>117.0</v>
+      </c>
+      <c r="X17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2329.0</v>
+      </c>
+      <c r="B18" t="n">
+        <v>163200.0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="n">
+        <v>59755.0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18" t="s">
+        <v>32</v>
+      </c>
+      <c r="N18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" t="s">
+        <v>33</v>
+      </c>
+      <c r="T18" t="s">
+        <v>54</v>
+      </c>
+      <c r="U18" t="s">
+        <v>54</v>
+      </c>
+      <c r="V18" t="s">
+        <v>54</v>
+      </c>
+      <c r="W18" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="X18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2345.0</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C19" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" t="n">
+        <v>59909.0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" t="s">
+        <v>123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>54</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
+      <c r="N19" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" t="n">
+        <v>400000.0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" t="s">
+        <v>33</v>
+      </c>
+      <c r="T19" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" t="s">
+        <v>32</v>
+      </c>
+      <c r="V19" t="s">
+        <v>32</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2346.0</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" t="n">
+        <v>59909.0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" t="s">
+        <v>54</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" t="n">
+        <v>400000.0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" t="s">
+        <v>32</v>
+      </c>
+      <c r="V20" t="s">
+        <v>32</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2357.0</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D21" t="n">
+        <v>59846.0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
+      <c r="N21" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" t="n">
+        <v>100000.0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>40000.0</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>32</v>
+      </c>
+      <c r="R21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" t="s">
+        <v>32</v>
+      </c>
+      <c r="V21" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2358.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="n">
+        <v>59955.0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+      <c r="I22" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" t="s">
+        <v>54</v>
+      </c>
+      <c r="K22" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" t="s">
+        <v>54</v>
+      </c>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" t="n">
+        <v>400000.0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10000.0</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>32</v>
+      </c>
+      <c r="R22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S22" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" t="s">
+        <v>32</v>
+      </c>
+      <c r="V22" t="s">
+        <v>32</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2542.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>198778.0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" t="n">
+        <v>59929.0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>54</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>54</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
+      <c r="N23" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>32</v>
+      </c>
+      <c r="R23" t="s">
+        <v>32</v>
+      </c>
+      <c r="S23" t="s">
+        <v>136</v>
+      </c>
+      <c r="T23" t="s">
+        <v>61</v>
+      </c>
+      <c r="U23" t="s">
+        <v>62</v>
+      </c>
+      <c r="V23" t="s">
+        <v>63</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2599.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>132640.0</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" t="n">
+        <v>59929.0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" t="s">
+        <v>54</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
+      <c r="N24" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" t="n">
+        <v>17000.0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" t="s">
+        <v>32</v>
+      </c>
+      <c r="S24" t="s">
+        <v>136</v>
+      </c>
+      <c r="T24" t="s">
+        <v>61</v>
+      </c>
+      <c r="U24" t="s">
+        <v>62</v>
+      </c>
+      <c r="V24" t="s">
+        <v>63</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2600.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>132640.0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D25" t="n">
+        <v>59929.0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+      <c r="I25" t="s">
+        <v>54</v>
+      </c>
+      <c r="J25" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
+        <v>54</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
+      <c r="N25" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" t="n">
+        <v>50000.0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" t="s">
+        <v>32</v>
+      </c>
+      <c r="S25" t="s">
+        <v>136</v>
+      </c>
+      <c r="T25" t="s">
+        <v>61</v>
+      </c>
+      <c r="U25" t="s">
+        <v>62</v>
+      </c>
+      <c r="V25" t="s">
+        <v>63</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2630.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>132299.0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" t="n">
+        <v>59929.0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>54</v>
+      </c>
+      <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>54</v>
+      </c>
+      <c r="M26" t="s">
+        <v>32</v>
+      </c>
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="n">
+        <v>14000.0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>32</v>
+      </c>
+      <c r="R26" t="s">
+        <v>32</v>
+      </c>
+      <c r="S26" t="s">
+        <v>136</v>
+      </c>
+      <c r="T26" t="s">
+        <v>61</v>
+      </c>
+      <c r="U26" t="s">
+        <v>62</v>
+      </c>
+      <c r="V26" t="s">
+        <v>63</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="X26" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
